--- a/assets/uploads/template/template_siswa.xlsx
+++ b/assets/uploads/template/template_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aceph\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa3e2c279e7de5ed/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32029F08-CEDC-48DC-BF4E-6F0DBF9807C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0301AE70-861A-4283-A276-54F111D0D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA3DEC4A-1C10-460A-9A98-B2D68B3FA5F4}"/>
   </bookViews>
@@ -25,7 +25,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>NIS</t>
+  </si>
+  <si>
+    <t>NISN</t>
+  </si>
+  <si>
+    <t>Nama Lengkap</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
   <si>
     <t>Tempat Lahir</t>
   </si>
@@ -60,13 +72,7 @@
     <t>Email</t>
   </si>
   <si>
-    <t>NIS (*)</t>
-  </si>
-  <si>
-    <t>NISN(*)</t>
-  </si>
-  <si>
-    <t>Nama Lengkap (*)</t>
+    <t>Aktif</t>
   </si>
 </sst>
 </file>
@@ -429,65 +435,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65114F9-5236-40EC-ADE8-950296748B80}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>111111</v>
+      </c>
+      <c r="B2">
+        <v>11111</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>22222</v>
+      </c>
+      <c r="B3">
+        <v>222222</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>10</v>
+      <c r="D3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/assets/uploads/template/template_siswa.xlsx
+++ b/assets/uploads/template/template_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa3e2c279e7de5ed/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aceph\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0301AE70-861A-4283-A276-54F111D0D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32029F08-CEDC-48DC-BF4E-6F0DBF9807C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA3DEC4A-1C10-460A-9A98-B2D68B3FA5F4}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>NISN</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tempat Lahir</t>
   </si>
@@ -72,7 +60,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Aktif</t>
+    <t>NIS (*)</t>
+  </si>
+  <si>
+    <t>NISN(*)</t>
+  </si>
+  <si>
+    <t>Nama Lengkap (*)</t>
   </si>
 </sst>
 </file>
@@ -435,96 +429,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65114F9-5236-40EC-ADE8-950296748B80}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>111111</v>
-      </c>
-      <c r="B2">
-        <v>11111</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>22222</v>
-      </c>
-      <c r="B3">
-        <v>222222</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/assets/uploads/template/template_siswa.xlsx
+++ b/assets/uploads/template/template_siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa3e2c279e7de5ed/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\absen peserta didik TP 2324 update tanggal 27072023\X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0301AE70-861A-4283-A276-54F111D0D5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A01C1-F3FD-4CAA-BD9E-2D125FBB1A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{DA3DEC4A-1C10-460A-9A98-B2D68B3FA5F4}"/>
   </bookViews>
@@ -25,19 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
-  <si>
-    <t>NIS</t>
-  </si>
-  <si>
-    <t>NISN</t>
-  </si>
-  <si>
-    <t>Nama Lengkap</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Tempat Lahir</t>
   </si>
@@ -72,7 +60,13 @@
     <t>Email</t>
   </si>
   <si>
-    <t>Aktif</t>
+    <t>NIS(*)</t>
+  </si>
+  <si>
+    <t>NISN(*)</t>
+  </si>
+  <si>
+    <t>Nama Lengkap(*)</t>
   </si>
 </sst>
 </file>
@@ -435,96 +429,65 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B65114F9-5236-40EC-ADE8-950296748B80}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>111111</v>
-      </c>
-      <c r="B2">
-        <v>11111</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>22222</v>
-      </c>
-      <c r="B3">
-        <v>222222</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
